--- a/3/5/2/1/comerciales - en pesos 2013 a 2021 - Mensual.xlsx
+++ b/3/5/2/1/comerciales - en pesos 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Serie</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3517,6 +3520,35 @@
         <v>60.9</v>
       </c>
     </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104">
+        <v>4.67</v>
+      </c>
+      <c r="C104">
+        <v>4859.82</v>
+      </c>
+      <c r="D104">
+        <v>3.14</v>
+      </c>
+      <c r="E104">
+        <v>2876.26</v>
+      </c>
+      <c r="F104">
+        <v>6.42</v>
+      </c>
+      <c r="G104">
+        <v>1917.5</v>
+      </c>
+      <c r="H104">
+        <v>20.65</v>
+      </c>
+      <c r="I104">
+        <v>66.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/1/comerciales - en pesos 2013 a 2021 - Mensual.xlsx
+++ b/3/5/2/1/comerciales - en pesos 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Serie</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3549,6 +3552,35 @@
         <v>66.06</v>
       </c>
     </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105">
+        <v>5.58</v>
+      </c>
+      <c r="C105">
+        <v>3850.33</v>
+      </c>
+      <c r="D105">
+        <v>3.43</v>
+      </c>
+      <c r="E105">
+        <v>1931.76</v>
+      </c>
+      <c r="F105">
+        <v>7.31</v>
+      </c>
+      <c r="G105">
+        <v>1851.62</v>
+      </c>
+      <c r="H105">
+        <v>19.53</v>
+      </c>
+      <c r="I105">
+        <v>66.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/1/comerciales - en pesos 2013 a 2021 - Mensual.xlsx
+++ b/3/5/2/1/comerciales - en pesos 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Serie</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3581,6 +3584,35 @@
         <v>66.95</v>
       </c>
     </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106">
+        <v>5.98</v>
+      </c>
+      <c r="C106">
+        <v>3888.11</v>
+      </c>
+      <c r="D106">
+        <v>4.36</v>
+      </c>
+      <c r="E106">
+        <v>1806.5</v>
+      </c>
+      <c r="F106">
+        <v>6.93</v>
+      </c>
+      <c r="G106">
+        <v>2017.96</v>
+      </c>
+      <c r="H106">
+        <v>21.74</v>
+      </c>
+      <c r="I106">
+        <v>63.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/1/comerciales - en pesos 2013 a 2021 - Mensual.xlsx
+++ b/3/5/2/1/comerciales - en pesos 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Serie</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3613,6 +3616,35 @@
         <v>63.65</v>
       </c>
     </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107">
+        <v>7.08</v>
+      </c>
+      <c r="C107">
+        <v>4304.43</v>
+      </c>
+      <c r="D107">
+        <v>5.38</v>
+      </c>
+      <c r="E107">
+        <v>2124.45</v>
+      </c>
+      <c r="F107">
+        <v>8.33</v>
+      </c>
+      <c r="G107">
+        <v>2115.28</v>
+      </c>
+      <c r="H107">
+        <v>21.82</v>
+      </c>
+      <c r="I107">
+        <v>64.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
